--- a/Pré-Traitement_CASSANDRA/Base_de_temps.xlsx
+++ b/Pré-Traitement_CASSANDRA/Base_de_temps.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\max97\Documents\Espace de travail Git\CassandraGetData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\max97\Documents\Espace de travail Git\CassandraGetData\Pré-Traitement_CASSANDRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="23040" windowHeight="9036" xr2:uid="{012C3A6C-84EE-44D2-BD45-514799E61271}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="23040" windowHeight="9036" activeTab="2" xr2:uid="{012C3A6C-84EE-44D2-BD45-514799E61271}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ne pas toucher" sheetId="1" r:id="rId1"/>
+    <sheet name="Tous les capteurs" sheetId="4" r:id="rId2"/>
+    <sheet name="Pré-Tri" sheetId="2" r:id="rId3"/>
+    <sheet name="Demande vérif" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="299">
   <si>
     <t>FDnum_Avg</t>
   </si>
@@ -944,12 +947,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -1016,7 +1031,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1051,11 +1066,196 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1388,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1729E29-B7A9-4EDC-B49B-B2387BC8936D}">
   <dimension ref="A1:K611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A359" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D362" sqref="D362"/>
+    <sheetView topLeftCell="A468" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A594" sqref="A477:XFD594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20753,13 +20953,54 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="K595:K611"/>
-    <mergeCell ref="C595:C611"/>
-    <mergeCell ref="C477:C594"/>
-    <mergeCell ref="K593:K594"/>
-    <mergeCell ref="K477:K591"/>
-    <mergeCell ref="D477:D594"/>
-    <mergeCell ref="D595:D611"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K67:K82"/>
+    <mergeCell ref="K83:K95"/>
+    <mergeCell ref="C165:C170"/>
+    <mergeCell ref="D165:D170"/>
+    <mergeCell ref="K148:K164"/>
+    <mergeCell ref="K165:K170"/>
+    <mergeCell ref="K132:K147"/>
+    <mergeCell ref="D148:D164"/>
+    <mergeCell ref="C148:C164"/>
+    <mergeCell ref="D2:D18"/>
+    <mergeCell ref="K2:K18"/>
+    <mergeCell ref="C2:C18"/>
+    <mergeCell ref="K96:K131"/>
+    <mergeCell ref="D96:D131"/>
+    <mergeCell ref="C96:C131"/>
+    <mergeCell ref="K35:K50"/>
+    <mergeCell ref="D35:D50"/>
+    <mergeCell ref="C35:C50"/>
+    <mergeCell ref="K19:K34"/>
+    <mergeCell ref="D83:D95"/>
+    <mergeCell ref="C83:C95"/>
+    <mergeCell ref="K51:K66"/>
+    <mergeCell ref="D171:D213"/>
+    <mergeCell ref="C171:C213"/>
+    <mergeCell ref="K171:K213"/>
+    <mergeCell ref="C214:C247"/>
+    <mergeCell ref="D214:D247"/>
+    <mergeCell ref="K214:K247"/>
+    <mergeCell ref="D248:D264"/>
+    <mergeCell ref="C248:C264"/>
+    <mergeCell ref="K248:K264"/>
+    <mergeCell ref="D265:D277"/>
+    <mergeCell ref="D278:D286"/>
+    <mergeCell ref="K278:K286"/>
+    <mergeCell ref="K265:K277"/>
+    <mergeCell ref="C265:C277"/>
+    <mergeCell ref="C278:C286"/>
+    <mergeCell ref="D287:D319"/>
+    <mergeCell ref="K287:K319"/>
+    <mergeCell ref="C287:C319"/>
+    <mergeCell ref="D320:D336"/>
+    <mergeCell ref="D337:D358"/>
+    <mergeCell ref="K320:K336"/>
+    <mergeCell ref="K337:K358"/>
+    <mergeCell ref="C320:C336"/>
+    <mergeCell ref="C337:C358"/>
     <mergeCell ref="K359:K374"/>
     <mergeCell ref="D375:D397"/>
     <mergeCell ref="C375:C397"/>
@@ -20776,66 +21017,6522 @@
     <mergeCell ref="K427:K443"/>
     <mergeCell ref="C427:C443"/>
     <mergeCell ref="C405:C426"/>
-    <mergeCell ref="D287:D319"/>
-    <mergeCell ref="K287:K319"/>
-    <mergeCell ref="C287:C319"/>
-    <mergeCell ref="D320:D336"/>
-    <mergeCell ref="D337:D358"/>
-    <mergeCell ref="K320:K336"/>
-    <mergeCell ref="K337:K358"/>
-    <mergeCell ref="C320:C336"/>
-    <mergeCell ref="C337:C358"/>
-    <mergeCell ref="D248:D264"/>
-    <mergeCell ref="C248:C264"/>
-    <mergeCell ref="K248:K264"/>
-    <mergeCell ref="D265:D277"/>
-    <mergeCell ref="D278:D286"/>
-    <mergeCell ref="K278:K286"/>
-    <mergeCell ref="K265:K277"/>
-    <mergeCell ref="C265:C277"/>
-    <mergeCell ref="C278:C286"/>
-    <mergeCell ref="D171:D213"/>
-    <mergeCell ref="C171:C213"/>
-    <mergeCell ref="K171:K213"/>
-    <mergeCell ref="C214:C247"/>
-    <mergeCell ref="D214:D247"/>
-    <mergeCell ref="K214:K247"/>
-    <mergeCell ref="D2:D18"/>
-    <mergeCell ref="K2:K18"/>
-    <mergeCell ref="C2:C18"/>
-    <mergeCell ref="K96:K131"/>
-    <mergeCell ref="D96:D131"/>
-    <mergeCell ref="C96:C131"/>
-    <mergeCell ref="K35:K50"/>
-    <mergeCell ref="D35:D50"/>
-    <mergeCell ref="C35:C50"/>
-    <mergeCell ref="K19:K34"/>
-    <mergeCell ref="D83:D95"/>
-    <mergeCell ref="C83:C95"/>
-    <mergeCell ref="C165:C170"/>
-    <mergeCell ref="D165:D170"/>
-    <mergeCell ref="K148:K164"/>
-    <mergeCell ref="K165:K170"/>
-    <mergeCell ref="K132:K147"/>
-    <mergeCell ref="D148:D164"/>
-    <mergeCell ref="C148:C164"/>
-    <mergeCell ref="K51:K66"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="K67:K82"/>
-    <mergeCell ref="K83:K95"/>
+    <mergeCell ref="K595:K611"/>
+    <mergeCell ref="C595:C611"/>
+    <mergeCell ref="C477:C594"/>
+    <mergeCell ref="K593:K594"/>
+    <mergeCell ref="K477:K591"/>
+    <mergeCell ref="D477:D594"/>
+    <mergeCell ref="D595:D611"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:K2 K67 K83 K96 K51 K35 K19 K132 K148 K165 K171 K214 K248 K265 K287 K278 K320 K337 K359 K375 K398 K612:K1048576 K595 K592:K593 K477 K405 K427 K444">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D153D64-4B42-46E7-8B9A-A630D180A8A1}">
+  <dimension ref="A1:H118"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <v>476</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4">
+        <v>41213</v>
+      </c>
+      <c r="D1" s="5">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="E1" s="4">
+        <v>41227</v>
+      </c>
+      <c r="F1" s="5">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="G1" s="2">
+        <f t="shared" ref="G1:G64" si="0">E1-C1</f>
+        <v>14</v>
+      </c>
+      <c r="H1" s="2">
+        <f t="shared" ref="H1:H64" si="1">G1/365.25</f>
+        <v>3.8329911019849415E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>477</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="4">
+        <v>42317</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.40625</v>
+      </c>
+      <c r="E2" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G2" s="2">
+        <f t="shared" si="0"/>
+        <v>595</v>
+      </c>
+      <c r="H2" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6290212183436004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>478</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="4">
+        <v>42822</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E3" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="1"/>
+        <v>0.24640657084188911</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>479</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="4">
+        <v>39802</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>41274</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>1472</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0301163586584527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>480</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>41213</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.63124999999999998</v>
+      </c>
+      <c r="E5" s="4">
+        <v>42317</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>1104</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0225872689938398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>481</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="4">
+        <v>42822</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E6" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.24640657084188911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>482</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="4">
+        <v>42822</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E7" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.24640657084188911</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>483</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="4">
+        <v>41213</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="E8" s="4">
+        <v>41227</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8329911019849415E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>484</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="4">
+        <v>41387</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="E9" s="4">
+        <v>41920</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>533</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4592744695414099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>485</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="4">
+        <v>40990</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>41181</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5229295003422314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>486</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="4">
+        <v>40990</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>41274</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>284</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.77754962354551682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>487</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E12" s="4">
+        <v>42923</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>4.6543463381245723E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>488</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="4">
+        <v>41340</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="E13" s="4">
+        <v>42293</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>953</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6091718001368926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>489</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="4">
+        <v>42317</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.40625</v>
+      </c>
+      <c r="E14" s="4">
+        <v>42639</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.88158795345653662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>490</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="4">
+        <v>42317</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.40625</v>
+      </c>
+      <c r="E15" s="4">
+        <v>42639</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.88158795345653662</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>491</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="4">
+        <v>42822</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E16" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.24640657084188911</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>492</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="4">
+        <v>40990</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>41181</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5229295003422314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>493</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="4">
+        <v>41275</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>1637</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="1"/>
+        <v>4.4818617385352502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>494</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="4">
+        <v>40990</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="E19" s="4">
+        <v>41181</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5229295003422314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>495</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="4">
+        <v>41275</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>42639</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>1364</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="1"/>
+        <v>3.7344284736481863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>496</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" s="4">
+        <v>41213</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="E21" s="4">
+        <v>41227</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8329911019849415E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>497</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" s="4">
+        <v>41387</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="E22" s="4">
+        <v>41920</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>533</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4592744695414099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>498</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="4">
+        <v>41387</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="E23" s="4">
+        <v>41920</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>533</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4592744695414099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>499</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E24" s="4">
+        <v>42923</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="1"/>
+        <v>4.6543463381245723E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>500</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4">
+        <v>41305</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="E25" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>1607</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="1"/>
+        <v>4.3997262149212863</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>501</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="4">
+        <v>39802</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>41241</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>1439</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9397672826830936</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>502</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" s="4">
+        <v>41387</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="E27" s="4">
+        <v>41387</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>503</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" s="4">
+        <v>41313</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E28" s="4">
+        <v>42178</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="0"/>
+        <v>865</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3682409308692676</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>504</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4">
+        <v>41275</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="0"/>
+        <v>1637</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="1"/>
+        <v>4.4818617385352502</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>505</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" s="4">
+        <v>41313</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E30" s="4">
+        <v>42178</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="0"/>
+        <v>865</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3682409308692676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>506</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" s="4">
+        <v>41229</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="E31" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="0"/>
+        <v>1683</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="1"/>
+        <v>4.6078028747433262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>507</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="4">
+        <v>41340</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="E32" s="4">
+        <v>42293</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="0"/>
+        <v>953</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6091718001368926</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>508</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="4">
+        <v>41340</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="E33" s="4">
+        <v>42178</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="0"/>
+        <v>838</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2943189596167008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>509</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="4">
+        <v>41275</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>42639</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="0"/>
+        <v>1364</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="1"/>
+        <v>3.7344284736481863</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>510</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="4">
+        <v>41213</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="E35" s="4">
+        <v>41227</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8329911019849415E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>511</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" s="4">
+        <v>41229</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="E36" s="4">
+        <v>42639</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="0"/>
+        <v>1410</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8603696098562628</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>512</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="4">
+        <v>40990</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>41274</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="0"/>
+        <v>284</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="1"/>
+        <v>0.77754962354551682</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>513</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="4">
+        <v>41921</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="E38" s="4">
+        <v>42317</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0841889117043122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>514</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="4">
+        <v>40990</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>41274</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="0"/>
+        <v>284</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="1"/>
+        <v>0.77754962354551682</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>515</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="4">
+        <v>42317</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0.40625</v>
+      </c>
+      <c r="E40" s="4">
+        <v>42639</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="1"/>
+        <v>0.88158795345653662</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>516</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C41" s="4">
+        <v>41262</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="E41" s="4">
+        <v>41340</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2135523613963039</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>517</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" s="4">
+        <v>42293</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E42" s="4">
+        <v>42317</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="1"/>
+        <v>6.5708418891170434E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>518</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C43" s="4">
+        <v>41313</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E43" s="4">
+        <v>42178</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="0"/>
+        <v>865</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3682409308692676</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>519</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C44" s="4">
+        <v>41313</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="E44" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="0"/>
+        <v>1599</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="1"/>
+        <v>4.3778234086242298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>520</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C45" s="4">
+        <v>42822</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E45" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="1"/>
+        <v>0.24640657084188911</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>521</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" s="4">
+        <v>41387</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="E46" s="4">
+        <v>42293</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="0"/>
+        <v>906</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4804928131416837</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>522</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C47" s="4">
+        <v>41313</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E47" s="4">
+        <v>42317</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="0"/>
+        <v>1004</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7488021902806299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>523</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" s="4">
+        <v>40990</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>41241</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="1"/>
+        <v>0.68720054757015747</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>524</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C49" s="4">
+        <v>42822</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E49" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="1"/>
+        <v>0.24640657084188911</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>525</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" s="4">
+        <v>41387</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="E50" s="4">
+        <v>41920</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="0"/>
+        <v>533</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4592744695414099</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>526</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C51" s="4">
+        <v>41387</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="E51" s="4">
+        <v>41920</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="0"/>
+        <v>533</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4592744695414099</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>527</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" s="4">
+        <v>41387</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="E52" s="4">
+        <v>41920</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="0"/>
+        <v>533</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4592744695414099</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>528</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" s="4">
+        <v>41305</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="E53" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="0"/>
+        <v>1607</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="1"/>
+        <v>4.3997262149212863</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>529</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" s="4">
+        <v>41409</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="E54" s="4">
+        <v>41920</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="0"/>
+        <v>511</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3990417522245038</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>530</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C55" s="4">
+        <v>41262</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="E55" s="4">
+        <v>41340</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2135523613963039</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>531</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" s="4">
+        <v>42293</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E56" s="4">
+        <v>42317</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="1"/>
+        <v>6.5708418891170434E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>532</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" s="4">
+        <v>41340</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="E57" s="4">
+        <v>42293</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="0"/>
+        <v>953</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6091718001368926</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>533</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58" s="4">
+        <v>41213</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="E58" s="4">
+        <v>42293</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9568788501026693</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>534</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59" s="4">
+        <v>40990</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>41241</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" si="1"/>
+        <v>0.68720054757015747</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>535</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C60" s="4">
+        <v>40990</v>
+      </c>
+      <c r="D60" s="5">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>41151</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" si="1"/>
+        <v>0.44079397672826831</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>536</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C61" s="4">
+        <v>40990</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="E61" s="4">
+        <v>41181</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5229295003422314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>537</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C62" s="4">
+        <v>42083</v>
+      </c>
+      <c r="D62" s="5">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="E62" s="4">
+        <v>42293</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" si="1"/>
+        <v>0.57494866529774125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>538</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C63" s="4">
+        <v>41229</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="E63" s="4">
+        <v>41262</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" si="1"/>
+        <v>9.034907597535935E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>539</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C64" s="4">
+        <v>41387</v>
+      </c>
+      <c r="D64" s="5">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="E64" s="4">
+        <v>41920</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="0"/>
+        <v>533</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4592744695414099</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>540</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="4">
+        <v>41213</v>
+      </c>
+      <c r="D65" s="5">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="E65" s="4">
+        <v>41274</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" ref="G65:G118" si="2">E65-C65</f>
+        <v>61</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" ref="H65:H118" si="3">G65/365.25</f>
+        <v>0.16700889801505817</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>541</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="4">
+        <v>41275</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" si="2"/>
+        <v>1637</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" si="3"/>
+        <v>4.4818617385352502</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>542</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C67" s="4">
+        <v>40990</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>41241</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="G67" s="2">
+        <f t="shared" si="2"/>
+        <v>251</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" si="3"/>
+        <v>0.68720054757015747</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>543</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C68" s="4">
+        <v>42317</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0.40625</v>
+      </c>
+      <c r="E68" s="4">
+        <v>42639</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" si="2"/>
+        <v>322</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" si="3"/>
+        <v>0.88158795345653662</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>544</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C69" s="4">
+        <v>41340</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="E69" s="4">
+        <v>42293</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="G69" s="2">
+        <f t="shared" si="2"/>
+        <v>953</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" si="3"/>
+        <v>2.6091718001368926</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>545</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C70" s="4">
+        <v>41340</v>
+      </c>
+      <c r="D70" s="5">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="E70" s="4">
+        <v>42293</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" si="2"/>
+        <v>953</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" si="3"/>
+        <v>2.6091718001368926</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>546</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C71" s="4">
+        <v>41313</v>
+      </c>
+      <c r="D71" s="5">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="E71" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F71" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G71" s="2">
+        <f t="shared" si="2"/>
+        <v>1599</v>
+      </c>
+      <c r="H71" s="2">
+        <f t="shared" si="3"/>
+        <v>4.3778234086242298</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>547</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C72" s="4">
+        <v>40990</v>
+      </c>
+      <c r="D72" s="5">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>41241</v>
+      </c>
+      <c r="F72" s="5">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="G72" s="2">
+        <f t="shared" si="2"/>
+        <v>251</v>
+      </c>
+      <c r="H72" s="2">
+        <f t="shared" si="3"/>
+        <v>0.68720054757015747</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>548</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="4">
+        <v>41275</v>
+      </c>
+      <c r="D73" s="5">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G73" s="2">
+        <f t="shared" si="2"/>
+        <v>1637</v>
+      </c>
+      <c r="H73" s="2">
+        <f t="shared" si="3"/>
+        <v>4.4818617385352502</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>549</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C74" s="4">
+        <v>41310</v>
+      </c>
+      <c r="D74" s="5">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="E74" s="4">
+        <v>41340</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="G74" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H74" s="2">
+        <f t="shared" si="3"/>
+        <v>8.2135523613963035E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>550</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="4">
+        <v>41213</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0.63124999999999998</v>
+      </c>
+      <c r="E75" s="4">
+        <v>42317</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="G75" s="2">
+        <f t="shared" si="2"/>
+        <v>1104</v>
+      </c>
+      <c r="H75" s="2">
+        <f t="shared" si="3"/>
+        <v>3.0225872689938398</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>551</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C76" s="4">
+        <v>40990</v>
+      </c>
+      <c r="D76" s="5">
+        <v>0</v>
+      </c>
+      <c r="E76" s="4">
+        <v>41181</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="G76" s="2">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="H76" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5229295003422314</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>552</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C77" s="4">
+        <v>41387</v>
+      </c>
+      <c r="D77" s="5">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="E77" s="4">
+        <v>41920</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="G77" s="2">
+        <f t="shared" si="2"/>
+        <v>533</v>
+      </c>
+      <c r="H77" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4592744695414099</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>553</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="4">
+        <v>41275</v>
+      </c>
+      <c r="D78" s="5">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G78" s="2">
+        <f t="shared" si="2"/>
+        <v>1637</v>
+      </c>
+      <c r="H78" s="2">
+        <f t="shared" si="3"/>
+        <v>4.4818617385352502</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>554</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C79" s="4">
+        <v>42293</v>
+      </c>
+      <c r="D79" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E79" s="4">
+        <v>42317</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="G79" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="H79" s="2">
+        <f t="shared" si="3"/>
+        <v>6.5708418891170434E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>555</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C80" s="4">
+        <v>42822</v>
+      </c>
+      <c r="D80" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E80" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G80" s="2">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H80" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24640657084188911</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>556</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C81" s="4">
+        <v>42822</v>
+      </c>
+      <c r="D81" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E81" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G81" s="2">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H81" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24640657084188911</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>557</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C82" s="4">
+        <v>41313</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="E82" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G82" s="2">
+        <f t="shared" si="2"/>
+        <v>1599</v>
+      </c>
+      <c r="H82" s="2">
+        <f t="shared" si="3"/>
+        <v>4.3778234086242298</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>558</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="4">
+        <v>39802</v>
+      </c>
+      <c r="D83" s="5">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4">
+        <v>41274</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="G83" s="2">
+        <f t="shared" si="2"/>
+        <v>1472</v>
+      </c>
+      <c r="H83" s="2">
+        <f t="shared" si="3"/>
+        <v>4.0301163586584527</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>559</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="4">
+        <v>41275</v>
+      </c>
+      <c r="D84" s="5">
+        <v>0</v>
+      </c>
+      <c r="E84" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G84" s="2">
+        <f t="shared" si="2"/>
+        <v>1637</v>
+      </c>
+      <c r="H84" s="2">
+        <f t="shared" si="3"/>
+        <v>4.4818617385352502</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>560</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" s="4">
+        <v>39802</v>
+      </c>
+      <c r="D85" s="5">
+        <v>0</v>
+      </c>
+      <c r="E85" s="4">
+        <v>41241</v>
+      </c>
+      <c r="F85" s="5">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="G85" s="2">
+        <f t="shared" si="2"/>
+        <v>1439</v>
+      </c>
+      <c r="H85" s="2">
+        <f t="shared" si="3"/>
+        <v>3.9397672826830936</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>561</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C86" s="4">
+        <v>41409</v>
+      </c>
+      <c r="D86" s="5">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="E86" s="4">
+        <v>41920</v>
+      </c>
+      <c r="F86" s="5">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="G86" s="2">
+        <f t="shared" si="2"/>
+        <v>511</v>
+      </c>
+      <c r="H86" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3990417522245038</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>562</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C87" s="4">
+        <v>42822</v>
+      </c>
+      <c r="D87" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E87" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H87" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24640657084188911</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>563</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="4">
+        <v>41213</v>
+      </c>
+      <c r="D88" s="5">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="E88" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G88" s="2">
+        <f t="shared" si="2"/>
+        <v>1699</v>
+      </c>
+      <c r="H88" s="2">
+        <f t="shared" si="3"/>
+        <v>4.6516084873374401</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>564</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" s="4">
+        <v>40990</v>
+      </c>
+      <c r="D89" s="5">
+        <v>0</v>
+      </c>
+      <c r="E89" s="4">
+        <v>41241</v>
+      </c>
+      <c r="F89" s="5">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="G89" s="2">
+        <f t="shared" si="2"/>
+        <v>251</v>
+      </c>
+      <c r="H89" s="2">
+        <f t="shared" si="3"/>
+        <v>0.68720054757015747</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>565</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C90" s="4">
+        <v>42293</v>
+      </c>
+      <c r="D90" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E90" s="4">
+        <v>42317</v>
+      </c>
+      <c r="F90" s="5">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="G90" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="H90" s="2">
+        <f t="shared" si="3"/>
+        <v>6.5708418891170434E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>566</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C91" s="4">
+        <v>42822</v>
+      </c>
+      <c r="D91" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E91" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F91" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G91" s="2">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H91" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24640657084188911</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>567</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C92" s="4">
+        <v>41262</v>
+      </c>
+      <c r="D92" s="5">
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="E92" s="4">
+        <v>41340</v>
+      </c>
+      <c r="F92" s="5">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="G92" s="2">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="H92" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2135523613963039</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>568</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C93" s="4">
+        <v>39802</v>
+      </c>
+      <c r="D93" s="5">
+        <v>0</v>
+      </c>
+      <c r="E93" s="4">
+        <v>41274</v>
+      </c>
+      <c r="F93" s="5">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="G93" s="2">
+        <f t="shared" si="2"/>
+        <v>1472</v>
+      </c>
+      <c r="H93" s="2">
+        <f t="shared" si="3"/>
+        <v>4.0301163586584527</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>569</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C94" s="4">
+        <v>39802</v>
+      </c>
+      <c r="D94" s="5">
+        <v>0</v>
+      </c>
+      <c r="E94" s="4">
+        <v>41274</v>
+      </c>
+      <c r="F94" s="5">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="G94" s="2">
+        <f t="shared" si="2"/>
+        <v>1472</v>
+      </c>
+      <c r="H94" s="2">
+        <f t="shared" si="3"/>
+        <v>4.0301163586584527</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>570</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C95" s="4">
+        <v>42317</v>
+      </c>
+      <c r="D95" s="5">
+        <v>0.40625</v>
+      </c>
+      <c r="E95" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F95" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G95" s="2">
+        <f t="shared" si="2"/>
+        <v>595</v>
+      </c>
+      <c r="H95" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6290212183436004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>571</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="4">
+        <v>42941</v>
+      </c>
+      <c r="D96" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E96" s="4">
+        <v>43141</v>
+      </c>
+      <c r="F96" s="5">
+        <v>0.74930555555555556</v>
+      </c>
+      <c r="G96" s="2">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="H96" s="2">
+        <f t="shared" si="3"/>
+        <v>0.54757015742642023</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>572</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C97" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D97" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E97" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F97" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G97" s="2">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="H97" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>573</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C98" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D98" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E98" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F98" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G98" s="2">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="H98" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>574</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C99" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D99" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E99" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F99" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G99" s="2">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="H99" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>575</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C100" s="4">
+        <v>42923</v>
+      </c>
+      <c r="D100" s="5">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E100" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F100" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G100" s="2">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+      <c r="H100" s="2">
+        <f t="shared" si="3"/>
+        <v>0.60232717316906226</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>576</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C101" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D101" s="5">
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="E101" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F101" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G101" s="2">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="H101" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>577</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C102" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D102" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E102" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F102" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G102" s="2">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="H102" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>578</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C103" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D103" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E103" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F103" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G103" s="2">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="H103" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>579</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C104" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D104" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E104" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F104" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G104" s="2">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="H104" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>580</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C105" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D105" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E105" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F105" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G105" s="2">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="H105" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>581</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C106" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D106" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E106" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F106" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G106" s="2">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="H106" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>582</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C107" s="4">
+        <v>42923</v>
+      </c>
+      <c r="D107" s="5">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E107" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F107" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G107" s="2">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+      <c r="H107" s="2">
+        <f t="shared" si="3"/>
+        <v>0.60232717316906226</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>583</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C108" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D108" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E108" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F108" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G108" s="2">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="H108" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>584</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C109" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D109" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E109" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F109" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G109" s="2">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="H109" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>585</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C110" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D110" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E110" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F110" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G110" s="2">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="H110" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>586</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C111" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D111" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E111" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F111" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G111" s="2">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="H111" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>587</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C112" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D112" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E112" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F112" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G112" s="2">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="H112" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>588</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C113" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D113" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E113" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F113" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G113" s="2">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="H113" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>589</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C114" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D114" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E114" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F114" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G114" s="2">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="H114" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>590</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C115" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D115" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E115" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F115" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G115" s="2">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="H115" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>591</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="4">
+        <v>40990</v>
+      </c>
+      <c r="D116" s="5">
+        <v>0</v>
+      </c>
+      <c r="E116" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F116" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G116" s="2">
+        <f t="shared" si="2"/>
+        <v>2153</v>
+      </c>
+      <c r="H116" s="2">
+        <f t="shared" si="3"/>
+        <v>5.8945927446954141</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>592</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C117" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D117" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E117" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F117" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G117" s="2">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="H117" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>593</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C118" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D118" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E118" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F118" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G118" s="2">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="H118" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6883A75-1294-417D-88D0-B2163C04B69A}">
+  <dimension ref="A1:H84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <v>481</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="4">
+        <v>42822</v>
+      </c>
+      <c r="D1" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E1" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F1" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G1" s="2">
+        <f>E1-C1</f>
+        <v>90</v>
+      </c>
+      <c r="H1" s="2">
+        <f>G1/365.25</f>
+        <v>0.24640657084188911</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>483</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="4">
+        <v>41213</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="E2" s="4">
+        <v>41227</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="G2" s="2">
+        <f>E2-C2</f>
+        <v>14</v>
+      </c>
+      <c r="H2" s="2">
+        <f>G2/365.25</f>
+        <v>3.8329911019849415E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>484</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="4">
+        <v>41387</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="E3" s="4">
+        <v>41920</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="G3" s="2">
+        <f>E3-C3</f>
+        <v>533</v>
+      </c>
+      <c r="H3" s="2">
+        <f>G3/365.25</f>
+        <v>1.4592744695414099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>485</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="4">
+        <v>40990</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>41181</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="G4" s="2">
+        <f>E4-C4</f>
+        <v>191</v>
+      </c>
+      <c r="H4" s="2">
+        <f>G4/365.25</f>
+        <v>0.5229295003422314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>489</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="4">
+        <v>42317</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.40625</v>
+      </c>
+      <c r="E5" s="4">
+        <v>42639</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="G5" s="2">
+        <f>E5-C5</f>
+        <v>322</v>
+      </c>
+      <c r="H5" s="2">
+        <f>G5/365.25</f>
+        <v>0.88158795345653662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>490</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="4">
+        <v>42317</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.40625</v>
+      </c>
+      <c r="E6" s="4">
+        <v>42639</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="G6" s="2">
+        <f>E6-C6</f>
+        <v>322</v>
+      </c>
+      <c r="H6" s="2">
+        <f>G6/365.25</f>
+        <v>0.88158795345653662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>491</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="4">
+        <v>42822</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E7" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G7" s="2">
+        <f>E7-C7</f>
+        <v>90</v>
+      </c>
+      <c r="H7" s="2">
+        <f>G7/365.25</f>
+        <v>0.24640657084188911</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>492</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="4">
+        <v>40990</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>41181</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="G8" s="2">
+        <f>E8-C8</f>
+        <v>191</v>
+      </c>
+      <c r="H8" s="2">
+        <f>G8/365.25</f>
+        <v>0.5229295003422314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>493</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="4">
+        <v>41275</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G9" s="2">
+        <f>E9-C9</f>
+        <v>1637</v>
+      </c>
+      <c r="H9" s="2">
+        <f>G9/365.25</f>
+        <v>4.4818617385352502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>496</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="4">
+        <v>41213</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="E10" s="4">
+        <v>41227</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="G10" s="2">
+        <f>E10-C10</f>
+        <v>14</v>
+      </c>
+      <c r="H10" s="2">
+        <f>G10/365.25</f>
+        <v>3.8329911019849415E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>497</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="4">
+        <v>41387</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="E11" s="4">
+        <v>41920</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="G11" s="2">
+        <f>E11-C11</f>
+        <v>533</v>
+      </c>
+      <c r="H11" s="2">
+        <f>G11/365.25</f>
+        <v>1.4592744695414099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>498</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="4">
+        <v>41387</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="E12" s="4">
+        <v>41920</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="G12" s="2">
+        <f>E12-C12</f>
+        <v>533</v>
+      </c>
+      <c r="H12" s="2">
+        <f>G12/365.25</f>
+        <v>1.4592744695414099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>500</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <v>41305</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="E13" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G13" s="2">
+        <f>E13-C13</f>
+        <v>1607</v>
+      </c>
+      <c r="H13" s="2">
+        <f>G13/365.25</f>
+        <v>4.3997262149212863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>501</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="4">
+        <v>39802</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>41241</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="G14" s="2">
+        <f>E14-C14</f>
+        <v>1439</v>
+      </c>
+      <c r="H14" s="2">
+        <f>G14/365.25</f>
+        <v>3.9397672826830936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>503</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="4">
+        <v>41313</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E15" s="4">
+        <v>42178</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="G15" s="2">
+        <f>E15-C15</f>
+        <v>865</v>
+      </c>
+      <c r="H15" s="2">
+        <f>G15/365.25</f>
+        <v>2.3682409308692676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>504</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4">
+        <v>41275</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G16" s="2">
+        <f>E16-C16</f>
+        <v>1637</v>
+      </c>
+      <c r="H16" s="2">
+        <f>G16/365.25</f>
+        <v>4.4818617385352502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>505</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="4">
+        <v>41313</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E17" s="4">
+        <v>42178</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="G17" s="2">
+        <f>E17-C17</f>
+        <v>865</v>
+      </c>
+      <c r="H17" s="2">
+        <f>G17/365.25</f>
+        <v>2.3682409308692676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>510</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>41213</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="E18" s="4">
+        <v>41227</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="G18" s="2">
+        <f>E18-C18</f>
+        <v>14</v>
+      </c>
+      <c r="H18" s="2">
+        <f>G18/365.25</f>
+        <v>3.8329911019849415E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>511</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="4">
+        <v>41229</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="E19" s="4">
+        <v>42639</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="G19" s="2">
+        <f>E19-C19</f>
+        <v>1410</v>
+      </c>
+      <c r="H19" s="2">
+        <f>G19/365.25</f>
+        <v>3.8603696098562628</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>513</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="4">
+        <v>41921</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="E20" s="4">
+        <v>42317</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="G20" s="2">
+        <f>E20-C20</f>
+        <v>396</v>
+      </c>
+      <c r="H20" s="2">
+        <f>G20/365.25</f>
+        <v>1.0841889117043122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>514</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="4">
+        <v>40990</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>41274</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="G21" s="2">
+        <f>E21-C21</f>
+        <v>284</v>
+      </c>
+      <c r="H21" s="2">
+        <f>G21/365.25</f>
+        <v>0.77754962354551682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>515</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" s="4">
+        <v>42317</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.40625</v>
+      </c>
+      <c r="E22" s="4">
+        <v>42639</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="G22" s="2">
+        <f>E22-C22</f>
+        <v>322</v>
+      </c>
+      <c r="H22" s="2">
+        <f>G22/365.25</f>
+        <v>0.88158795345653662</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>516</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="4">
+        <v>41262</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="E23" s="4">
+        <v>41340</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="G23" s="2">
+        <f>E23-C23</f>
+        <v>78</v>
+      </c>
+      <c r="H23" s="2">
+        <f>G23/365.25</f>
+        <v>0.2135523613963039</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>517</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="4">
+        <v>42293</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E24" s="4">
+        <v>42317</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="G24" s="2">
+        <f>E24-C24</f>
+        <v>24</v>
+      </c>
+      <c r="H24" s="2">
+        <f>G24/365.25</f>
+        <v>6.5708418891170434E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>518</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="4">
+        <v>41313</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E25" s="4">
+        <v>42178</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="G25" s="2">
+        <f>E25-C25</f>
+        <v>865</v>
+      </c>
+      <c r="H25" s="2">
+        <f>G25/365.25</f>
+        <v>2.3682409308692676</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>519</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="4">
+        <v>41313</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="E26" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G26" s="2">
+        <f>E26-C26</f>
+        <v>1599</v>
+      </c>
+      <c r="H26" s="2">
+        <f>G26/365.25</f>
+        <v>4.3778234086242298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>525</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" s="4">
+        <v>41387</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="E27" s="4">
+        <v>41920</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="G27" s="2">
+        <f>E27-C27</f>
+        <v>533</v>
+      </c>
+      <c r="H27" s="2">
+        <f>G27/365.25</f>
+        <v>1.4592744695414099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>526</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="4">
+        <v>41387</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="E28" s="4">
+        <v>41920</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="G28" s="2">
+        <f>E28-C28</f>
+        <v>533</v>
+      </c>
+      <c r="H28" s="2">
+        <f>G28/365.25</f>
+        <v>1.4592744695414099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>527</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="4">
+        <v>41387</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="E29" s="4">
+        <v>41920</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="G29" s="2">
+        <f>E29-C29</f>
+        <v>533</v>
+      </c>
+      <c r="H29" s="2">
+        <f>G29/365.25</f>
+        <v>1.4592744695414099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>528</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" s="4">
+        <v>41305</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="E30" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G30" s="2">
+        <f>E30-C30</f>
+        <v>1607</v>
+      </c>
+      <c r="H30" s="2">
+        <f>G30/365.25</f>
+        <v>4.3997262149212863</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>529</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="4">
+        <v>41409</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="E31" s="4">
+        <v>41920</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="G31" s="2">
+        <f>E31-C31</f>
+        <v>511</v>
+      </c>
+      <c r="H31" s="2">
+        <f>G31/365.25</f>
+        <v>1.3990417522245038</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>530</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" s="4">
+        <v>41262</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="E32" s="4">
+        <v>41340</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="G32" s="2">
+        <f>E32-C32</f>
+        <v>78</v>
+      </c>
+      <c r="H32" s="2">
+        <f>G32/365.25</f>
+        <v>0.2135523613963039</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>531</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" s="4">
+        <v>42293</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E33" s="4">
+        <v>42317</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="G33" s="2">
+        <f>E33-C33</f>
+        <v>24</v>
+      </c>
+      <c r="H33" s="2">
+        <f>G33/365.25</f>
+        <v>6.5708418891170434E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>532</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" s="4">
+        <v>41340</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="E34" s="4">
+        <v>42293</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="G34" s="2">
+        <f>E34-C34</f>
+        <v>953</v>
+      </c>
+      <c r="H34" s="2">
+        <f>G34/365.25</f>
+        <v>2.6091718001368926</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>533</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35" s="4">
+        <v>41213</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="E35" s="4">
+        <v>42293</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="G35" s="2">
+        <f>E35-C35</f>
+        <v>1080</v>
+      </c>
+      <c r="H35" s="2">
+        <f>G35/365.25</f>
+        <v>2.9568788501026693</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>534</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C36" s="4">
+        <v>40990</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>41241</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="G36" s="2">
+        <f>E36-C36</f>
+        <v>251</v>
+      </c>
+      <c r="H36" s="2">
+        <f>G36/365.25</f>
+        <v>0.68720054757015747</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>537</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C37" s="4">
+        <v>42083</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="E37" s="4">
+        <v>42293</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="G37" s="2">
+        <f>E37-C37</f>
+        <v>210</v>
+      </c>
+      <c r="H37" s="2">
+        <f>G37/365.25</f>
+        <v>0.57494866529774125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>538</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C38" s="4">
+        <v>41229</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="E38" s="4">
+        <v>41262</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="G38" s="2">
+        <f>E38-C38</f>
+        <v>33</v>
+      </c>
+      <c r="H38" s="2">
+        <f>G38/365.25</f>
+        <v>9.034907597535935E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>539</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" s="4">
+        <v>41387</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="E39" s="4">
+        <v>41920</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="G39" s="2">
+        <f>E39-C39</f>
+        <v>533</v>
+      </c>
+      <c r="H39" s="2">
+        <f>G39/365.25</f>
+        <v>1.4592744695414099</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>540</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="4">
+        <v>41213</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="E40" s="4">
+        <v>41274</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="G40" s="2">
+        <f>E40-C40</f>
+        <v>61</v>
+      </c>
+      <c r="H40" s="2">
+        <f>G40/365.25</f>
+        <v>0.16700889801505817</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>541</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="4">
+        <v>41275</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G41" s="2">
+        <f>E41-C41</f>
+        <v>1637</v>
+      </c>
+      <c r="H41" s="2">
+        <f>G41/365.25</f>
+        <v>4.4818617385352502</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>542</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C42" s="4">
+        <v>40990</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>41241</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="G42" s="2">
+        <f>E42-C42</f>
+        <v>251</v>
+      </c>
+      <c r="H42" s="2">
+        <f>G42/365.25</f>
+        <v>0.68720054757015747</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>544</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43" s="4">
+        <v>41340</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="E43" s="4">
+        <v>42293</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="G43" s="2">
+        <f>E43-C43</f>
+        <v>953</v>
+      </c>
+      <c r="H43" s="2">
+        <f>G43/365.25</f>
+        <v>2.6091718001368926</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>545</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C44" s="4">
+        <v>41340</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="E44" s="4">
+        <v>42293</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="G44" s="2">
+        <f>E44-C44</f>
+        <v>953</v>
+      </c>
+      <c r="H44" s="2">
+        <f>G44/365.25</f>
+        <v>2.6091718001368926</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>546</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C45" s="4">
+        <v>41313</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="E45" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G45" s="2">
+        <f>E45-C45</f>
+        <v>1599</v>
+      </c>
+      <c r="H45" s="2">
+        <f>G45/365.25</f>
+        <v>4.3778234086242298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>547</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C46" s="4">
+        <v>40990</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>41241</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="G46" s="2">
+        <f>E46-C46</f>
+        <v>251</v>
+      </c>
+      <c r="H46" s="2">
+        <f>G46/365.25</f>
+        <v>0.68720054757015747</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>548</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="4">
+        <v>41275</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G47" s="2">
+        <f>E47-C47</f>
+        <v>1637</v>
+      </c>
+      <c r="H47" s="2">
+        <f>G47/365.25</f>
+        <v>4.4818617385352502</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>552</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="4">
+        <v>41387</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="E48" s="4">
+        <v>41920</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="G48" s="2">
+        <f>E48-C48</f>
+        <v>533</v>
+      </c>
+      <c r="H48" s="2">
+        <f>G48/365.25</f>
+        <v>1.4592744695414099</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>553</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="4">
+        <v>41275</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G49" s="2">
+        <f>E49-C49</f>
+        <v>1637</v>
+      </c>
+      <c r="H49" s="2">
+        <f>G49/365.25</f>
+        <v>4.4818617385352502</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>554</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C50" s="4">
+        <v>42293</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E50" s="4">
+        <v>42317</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="G50" s="2">
+        <f>E50-C50</f>
+        <v>24</v>
+      </c>
+      <c r="H50" s="2">
+        <f>G50/365.25</f>
+        <v>6.5708418891170434E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>555</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C51" s="4">
+        <v>42822</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E51" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G51" s="2">
+        <f>E51-C51</f>
+        <v>90</v>
+      </c>
+      <c r="H51" s="2">
+        <f>G51/365.25</f>
+        <v>0.24640657084188911</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>556</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C52" s="4">
+        <v>42822</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E52" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G52" s="2">
+        <f>E52-C52</f>
+        <v>90</v>
+      </c>
+      <c r="H52" s="2">
+        <f>G52/365.25</f>
+        <v>0.24640657084188911</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>557</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" s="4">
+        <v>41313</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="E53" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G53" s="2">
+        <f>E53-C53</f>
+        <v>1599</v>
+      </c>
+      <c r="H53" s="2">
+        <f>G53/365.25</f>
+        <v>4.3778234086242298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>560</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="4">
+        <v>39802</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>41241</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="G54" s="2">
+        <f>E54-C54</f>
+        <v>1439</v>
+      </c>
+      <c r="H54" s="2">
+        <f>G54/365.25</f>
+        <v>3.9397672826830936</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>561</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C55" s="4">
+        <v>41409</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="E55" s="4">
+        <v>41920</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="G55" s="2">
+        <f>E55-C55</f>
+        <v>511</v>
+      </c>
+      <c r="H55" s="2">
+        <f>G55/365.25</f>
+        <v>1.3990417522245038</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>562</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C56" s="4">
+        <v>42822</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E56" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G56" s="2">
+        <f>E56-C56</f>
+        <v>90</v>
+      </c>
+      <c r="H56" s="2">
+        <f>G56/365.25</f>
+        <v>0.24640657084188911</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>563</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="4">
+        <v>41213</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="E57" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G57" s="2">
+        <f>E57-C57</f>
+        <v>1699</v>
+      </c>
+      <c r="H57" s="2">
+        <f>G57/365.25</f>
+        <v>4.6516084873374401</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>564</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C58" s="4">
+        <v>40990</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>41241</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="G58" s="2">
+        <f>E58-C58</f>
+        <v>251</v>
+      </c>
+      <c r="H58" s="2">
+        <f>G58/365.25</f>
+        <v>0.68720054757015747</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>565</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" s="4">
+        <v>42293</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E59" s="4">
+        <v>42317</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="G59" s="2">
+        <f>E59-C59</f>
+        <v>24</v>
+      </c>
+      <c r="H59" s="2">
+        <f>G59/365.25</f>
+        <v>6.5708418891170434E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>566</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C60" s="4">
+        <v>42822</v>
+      </c>
+      <c r="D60" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E60" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G60" s="2">
+        <f>E60-C60</f>
+        <v>90</v>
+      </c>
+      <c r="H60" s="2">
+        <f>G60/365.25</f>
+        <v>0.24640657084188911</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>567</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C61" s="4">
+        <v>41262</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="E61" s="4">
+        <v>41340</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="G61" s="2">
+        <f>E61-C61</f>
+        <v>78</v>
+      </c>
+      <c r="H61" s="2">
+        <f>G61/365.25</f>
+        <v>0.2135523613963039</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>568</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C62" s="4">
+        <v>39802</v>
+      </c>
+      <c r="D62" s="5">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
+        <v>41274</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="G62" s="2">
+        <f>E62-C62</f>
+        <v>1472</v>
+      </c>
+      <c r="H62" s="2">
+        <f>G62/365.25</f>
+        <v>4.0301163586584527</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>569</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C63" s="4">
+        <v>39802</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>41274</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="G63" s="2">
+        <f>E63-C63</f>
+        <v>1472</v>
+      </c>
+      <c r="H63" s="2">
+        <f>G63/365.25</f>
+        <v>4.0301163586584527</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>570</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C64" s="4">
+        <v>42317</v>
+      </c>
+      <c r="D64" s="5">
+        <v>0.40625</v>
+      </c>
+      <c r="E64" s="4">
+        <v>42912</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G64" s="2">
+        <f>E64-C64</f>
+        <v>595</v>
+      </c>
+      <c r="H64" s="2">
+        <f>G64/365.25</f>
+        <v>1.6290212183436004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>571</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="4">
+        <v>42941</v>
+      </c>
+      <c r="D65" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E65" s="4">
+        <v>43141</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0.74930555555555556</v>
+      </c>
+      <c r="G65" s="2">
+        <f>E65-C65</f>
+        <v>200</v>
+      </c>
+      <c r="H65" s="2">
+        <f>G65/365.25</f>
+        <v>0.54757015742642023</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>572</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C66" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E66" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G66" s="2">
+        <f>E66-C66</f>
+        <v>237</v>
+      </c>
+      <c r="H66" s="2">
+        <f>G66/365.25</f>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>573</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C67" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E67" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G67" s="2">
+        <f>E67-C67</f>
+        <v>237</v>
+      </c>
+      <c r="H67" s="2">
+        <f>G67/365.25</f>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>574</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C68" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E68" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G68" s="2">
+        <f>E68-C68</f>
+        <v>237</v>
+      </c>
+      <c r="H68" s="2">
+        <f>G68/365.25</f>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>575</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" s="4">
+        <v>42923</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E69" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G69" s="2">
+        <f>E69-C69</f>
+        <v>220</v>
+      </c>
+      <c r="H69" s="2">
+        <f>G69/365.25</f>
+        <v>0.60232717316906226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>576</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D70" s="5">
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="E70" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G70" s="2">
+        <f>E70-C70</f>
+        <v>237</v>
+      </c>
+      <c r="H70" s="2">
+        <f>G70/365.25</f>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>578</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C71" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D71" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E71" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F71" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G71" s="2">
+        <f>E71-C71</f>
+        <v>237</v>
+      </c>
+      <c r="H71" s="2">
+        <f>G71/365.25</f>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>579</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C72" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D72" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E72" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F72" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G72" s="2">
+        <f>E72-C72</f>
+        <v>237</v>
+      </c>
+      <c r="H72" s="2">
+        <f>G72/365.25</f>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>580</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C73" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D73" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E73" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G73" s="2">
+        <f>E73-C73</f>
+        <v>237</v>
+      </c>
+      <c r="H73" s="2">
+        <f>G73/365.25</f>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>581</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C74" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D74" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E74" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G74" s="2">
+        <f>E74-C74</f>
+        <v>237</v>
+      </c>
+      <c r="H74" s="2">
+        <f>G74/365.25</f>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>583</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C75" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E75" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G75" s="2">
+        <f>E75-C75</f>
+        <v>237</v>
+      </c>
+      <c r="H75" s="2">
+        <f>G75/365.25</f>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>584</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C76" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D76" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E76" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G76" s="2">
+        <f>E76-C76</f>
+        <v>237</v>
+      </c>
+      <c r="H76" s="2">
+        <f>G76/365.25</f>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>585</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C77" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D77" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E77" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G77" s="2">
+        <f>E77-C77</f>
+        <v>237</v>
+      </c>
+      <c r="H77" s="2">
+        <f>G77/365.25</f>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>586</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C78" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D78" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E78" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G78" s="2">
+        <f>E78-C78</f>
+        <v>237</v>
+      </c>
+      <c r="H78" s="2">
+        <f>G78/365.25</f>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>587</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C79" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D79" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E79" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G79" s="2">
+        <f>E79-C79</f>
+        <v>237</v>
+      </c>
+      <c r="H79" s="2">
+        <f>G79/365.25</f>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>588</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C80" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D80" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E80" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G80" s="2">
+        <f>E80-C80</f>
+        <v>237</v>
+      </c>
+      <c r="H80" s="2">
+        <f>G80/365.25</f>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>589</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C81" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D81" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E81" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G81" s="2">
+        <f>E81-C81</f>
+        <v>237</v>
+      </c>
+      <c r="H81" s="2">
+        <f>G81/365.25</f>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>590</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C82" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E82" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G82" s="2">
+        <f>E82-C82</f>
+        <v>237</v>
+      </c>
+      <c r="H82" s="2">
+        <f>G82/365.25</f>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>591</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="4">
+        <v>40990</v>
+      </c>
+      <c r="D83" s="5">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G83" s="2">
+        <f>E83-C83</f>
+        <v>2153</v>
+      </c>
+      <c r="H83" s="2">
+        <f>G83/365.25</f>
+        <v>5.8945927446954141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>592</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C84" s="4">
+        <v>42906</v>
+      </c>
+      <c r="D84" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E84" s="4">
+        <v>43143</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G84" s="2">
+        <f>E84-C84</f>
+        <v>237</v>
+      </c>
+      <c r="H84" s="2">
+        <f>G84/365.25</f>
+        <v>0.64887063655030797</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBF8C68-646C-48E0-ABA2-F205391C0227}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.5546875" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15">
+        <v>593</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="16">
+        <v>42906</v>
+      </c>
+      <c r="D1" s="17">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E1" s="16">
+        <v>43143</v>
+      </c>
+      <c r="F1" s="17">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G1" s="15">
+        <f>E1-C1</f>
+        <v>237</v>
+      </c>
+      <c r="H1" s="15">
+        <f>G1/365.25</f>
+        <v>0.64887063655030797</v>
+      </c>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
+        <v>482</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="16">
+        <v>42822</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E2" s="16">
+        <v>42912</v>
+      </c>
+      <c r="F2" s="17">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G2" s="15">
+        <f>E2-C2</f>
+        <v>90</v>
+      </c>
+      <c r="H2" s="15">
+        <f>G2/365.25</f>
+        <v>0.24640657084188911</v>
+      </c>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>509</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="16">
+        <v>41275</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>42639</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="G3" s="15">
+        <f>E3-C3</f>
+        <v>1364</v>
+      </c>
+      <c r="H3" s="15">
+        <f>G3/365.25</f>
+        <v>3.7344284736481863</v>
+      </c>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>479</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="16">
+        <v>39802</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16">
+        <v>41274</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="G4" s="15">
+        <f>E4-C4</f>
+        <v>1472</v>
+      </c>
+      <c r="H4" s="15">
+        <f>G4/365.25</f>
+        <v>4.0301163586584527</v>
+      </c>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>524</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="16">
+        <v>42822</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E5" s="16">
+        <v>42912</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G5" s="15">
+        <f>E5-C5</f>
+        <v>90</v>
+      </c>
+      <c r="H5" s="15">
+        <f>G5/365.25</f>
+        <v>0.24640657084188911</v>
+      </c>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>508</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="16">
+        <v>41340</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="E6" s="16">
+        <v>42178</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="G6" s="15">
+        <f>E6-C6</f>
+        <v>838</v>
+      </c>
+      <c r="H6" s="15">
+        <f>G6/365.25</f>
+        <v>2.2943189596167008</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>521</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="16">
+        <v>41387</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="E7" s="16">
+        <v>42293</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="G7" s="15">
+        <f>E7-C7</f>
+        <v>906</v>
+      </c>
+      <c r="H7" s="15">
+        <f>G7/365.25</f>
+        <v>2.4804928131416837</v>
+      </c>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>522</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="16">
+        <v>41313</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E8" s="16">
+        <v>42317</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="G8" s="15">
+        <f>E8-C8</f>
+        <v>1004</v>
+      </c>
+      <c r="H8" s="15">
+        <f>G8/365.25</f>
+        <v>2.7488021902806299</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>535</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="16">
+        <v>40990</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>41151</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="G9" s="15">
+        <f>E9-C9</f>
+        <v>161</v>
+      </c>
+      <c r="H9" s="15">
+        <f>G9/365.25</f>
+        <v>0.44079397672826831</v>
+      </c>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>536</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="16">
+        <v>40990</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="E10" s="16">
+        <v>41181</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="G10" s="15">
+        <f>E10-C10</f>
+        <v>191</v>
+      </c>
+      <c r="H10" s="15">
+        <f>G10/365.25</f>
+        <v>0.5229295003422314</v>
+      </c>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>543</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="16">
+        <v>42317</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.40625</v>
+      </c>
+      <c r="E11" s="16">
+        <v>42639</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="G11" s="15">
+        <f>E11-C11</f>
+        <v>322</v>
+      </c>
+      <c r="H11" s="15">
+        <f>G11/365.25</f>
+        <v>0.88158795345653662</v>
+      </c>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>480</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="16">
+        <v>41213</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.63124999999999998</v>
+      </c>
+      <c r="E12" s="16">
+        <v>42317</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="G12" s="15">
+        <f>E12-C12</f>
+        <v>1104</v>
+      </c>
+      <c r="H12" s="15">
+        <f>G12/365.25</f>
+        <v>3.0225872689938398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>502</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="16">
+        <v>41387</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="E13" s="16">
+        <v>41387</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="G13" s="15">
+        <f>E13-C13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <f>G13/365.25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>523</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="16">
+        <v>40990</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>41241</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="G14" s="15">
+        <f>E14-C14</f>
+        <v>251</v>
+      </c>
+      <c r="H14" s="15">
+        <f>G14/365.25</f>
+        <v>0.68720054757015747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>577</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="19">
+        <v>42906</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="E16" s="19">
+        <v>43143</v>
+      </c>
+      <c r="F16" s="20">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="G16" s="18">
+        <f>E16-C16</f>
+        <v>237</v>
+      </c>
+      <c r="H16" s="18">
+        <f>G16/365.25</f>
+        <v>0.64887063655030797</v>
+      </c>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>478</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="19">
+        <v>42822</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E17" s="19">
+        <v>42912</v>
+      </c>
+      <c r="F17" s="20">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G17" s="18">
+        <f>E17-C17</f>
+        <v>90</v>
+      </c>
+      <c r="H17" s="18">
+        <f>G17/365.25</f>
+        <v>0.24640657084188911</v>
+      </c>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
+        <v>494</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="19">
+        <v>40990</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="E18" s="19">
+        <v>41181</v>
+      </c>
+      <c r="F18" s="20">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="G18" s="18">
+        <f>E18-C18</f>
+        <v>191</v>
+      </c>
+      <c r="H18" s="18">
+        <f>G18/365.25</f>
+        <v>0.5229295003422314</v>
+      </c>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
+        <v>495</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="19">
+        <v>41275</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19">
+        <v>42639</v>
+      </c>
+      <c r="F19" s="20">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="G19" s="18">
+        <f>E19-C19</f>
+        <v>1364</v>
+      </c>
+      <c r="H19" s="18">
+        <f>G19/365.25</f>
+        <v>3.7344284736481863</v>
+      </c>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
+        <v>520</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" s="19">
+        <v>42822</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E20" s="19">
+        <v>42912</v>
+      </c>
+      <c r="F20" s="20">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="G20" s="18">
+        <f>E20-C20</f>
+        <v>90</v>
+      </c>
+      <c r="H20" s="18">
+        <f>G20/365.25</f>
+        <v>0.24640657084188911</v>
+      </c>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
+        <v>549</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="19">
+        <v>41310</v>
+      </c>
+      <c r="D21" s="20">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="E21" s="19">
+        <v>41340</v>
+      </c>
+      <c r="F21" s="20">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="G21" s="18">
+        <f>E21-C21</f>
+        <v>30</v>
+      </c>
+      <c r="H21" s="18">
+        <f>G21/365.25</f>
+        <v>8.2135523613963035E-2</v>
+      </c>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
+        <v>550</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="19">
+        <v>41213</v>
+      </c>
+      <c r="D22" s="20">
+        <v>0.63124999999999998</v>
+      </c>
+      <c r="E22" s="19">
+        <v>42317</v>
+      </c>
+      <c r="F22" s="20">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="G22" s="18">
+        <f>E22-C22</f>
+        <v>1104</v>
+      </c>
+      <c r="H22" s="18">
+        <f>G22/365.25</f>
+        <v>3.0225872689938398</v>
+      </c>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
+        <v>551</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="19">
+        <v>40990</v>
+      </c>
+      <c r="D23" s="20">
+        <v>0</v>
+      </c>
+      <c r="E23" s="19">
+        <v>41181</v>
+      </c>
+      <c r="F23" s="20">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="G23" s="18">
+        <f>E23-C23</f>
+        <v>191</v>
+      </c>
+      <c r="H23" s="18">
+        <f>G23/365.25</f>
+        <v>0.5229295003422314</v>
+      </c>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18">
+        <v>558</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="19">
+        <v>39802</v>
+      </c>
+      <c r="D24" s="20">
+        <v>0</v>
+      </c>
+      <c r="E24" s="19">
+        <v>41274</v>
+      </c>
+      <c r="F24" s="20">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="G24" s="18">
+        <f>E24-C24</f>
+        <v>1472</v>
+      </c>
+      <c r="H24" s="18">
+        <f>G24/365.25</f>
+        <v>4.0301163586584527</v>
+      </c>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
+        <v>507</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="19">
+        <v>41340</v>
+      </c>
+      <c r="D25" s="20">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="E25" s="19">
+        <v>42293</v>
+      </c>
+      <c r="F25" s="20">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="G25" s="18">
+        <f>E25-C25</f>
+        <v>953</v>
+      </c>
+      <c r="H25" s="18">
+        <f>G25/365.25</f>
+        <v>2.6091718001368926</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:I8">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I10">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:I23">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>